--- a/biology/Botanique/Orpin_bleuâtre/Orpin_bleuâtre.xlsx
+++ b/biology/Botanique/Orpin_bleuâtre/Orpin_bleuâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orpin_bleu%C3%A2tre</t>
+          <t>Orpin_bleuâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum caeruleum
 L'Orpin bleuâtre (Sedum caeruleum) est une plante de la famille des Crassulacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orpin_bleu%C3%A2tre</t>
+          <t>Orpin_bleuâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sedum caeruleum est une plante annuelle, basse (de 5 à 15 cm de haut), qui pousse dans la mousse ou les anfractuosités rocheuses, ramifiée, glabrescente, à racine grêle et tige ascendante. Ses feuilles, longues de 3 à 6 mm, plutôt épaisses et ovoïdes, sont alternes, glabres, en biais sur la tige, dirigées vers le haut, à pointe très obtuse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedum caeruleum est une plante annuelle, basse (de 5 à 15 cm de haut), qui pousse dans la mousse ou les anfractuosités rocheuses, ramifiée, glabrescente, à racine grêle et tige ascendante. Ses feuilles, longues de 3 à 6 mm, plutôt épaisses et ovoïdes, sont alternes, glabres, en biais sur la tige, dirigées vers le haut, à pointe très obtuse.
 Ses fleurs aux extrémités des rameaux, sont petites, blanc bleuâtre à 6-8 sépales, 6-8 pétales lancéolées, pointues, 10-15 étamines, carpelles libres, pointues plus ou moins écartées, devenant des sacs à grains rares[Note 1].
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orpin_bleuâtre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_bleu%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : bleu
 Période de floraison : juillet-septembre
 Inflorescence : cyme multipare
@@ -530,38 +579,7 @@
 Dissémination : anémochore
 Habitat et répartition
 Habitat type : sols secs, rochers
-Aire de répartition : abondant sur les rochers de Corse, Sardaigne, Italie, Sicile, Malte, Tunisie et Algérie[1]..</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orpin_bleu%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orpin_bleu%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon n'a pas de protection connue.
-</t>
+Aire de répartition : abondant sur les rochers de Corse, Sardaigne, Italie, Sicile, Malte, Tunisie et Algérie..</t>
         </is>
       </c>
     </row>
@@ -571,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orpin_bleu%C3%A2tre</t>
+          <t>Orpin_bleuâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +604,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon n'a pas de protection connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orpin_bleuâtre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_bleu%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Tradition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de tradition en Corse, chaque année, d'aller cueillir sur les rochers et pierres cette plante appelée aussi fleurs de l'Ascension (populaire).
 Des petits bouquets de cette plante, ramassée avec les racines, sont suspendus au-dessus de l'entrée des maisons. Ils sont censés apporter bonheur et protéger le logis.
